--- a/Game/Map/Test.xlsx
+++ b/Game/Map/Test.xlsx
@@ -72,7 +72,863 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="126">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -408,20 +1264,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK10"/>
+  <dimension ref="A1:BR10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" zoomScale="44" zoomScaleNormal="44" workbookViewId="0">
+      <selection sqref="A1:BR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="10" width="3.625" customWidth="1"/>
-    <col min="11" max="23" width="4.25" customWidth="1"/>
-    <col min="24" max="37" width="4.625" customWidth="1"/>
+    <col min="1" max="59" width="4.125" customWidth="1"/>
+    <col min="60" max="70" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>0</v>
       </c>
@@ -533,8 +1388,107 @@
       <c r="AK1">
         <v>0</v>
       </c>
+      <c r="AL1">
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <v>0</v>
+      </c>
+      <c r="AN1">
+        <v>0</v>
+      </c>
+      <c r="AO1">
+        <v>0</v>
+      </c>
+      <c r="AP1">
+        <v>0</v>
+      </c>
+      <c r="AQ1">
+        <v>0</v>
+      </c>
+      <c r="AR1">
+        <v>0</v>
+      </c>
+      <c r="AS1">
+        <v>0</v>
+      </c>
+      <c r="AT1">
+        <v>0</v>
+      </c>
+      <c r="AU1">
+        <v>0</v>
+      </c>
+      <c r="AV1">
+        <v>0</v>
+      </c>
+      <c r="AW1">
+        <v>0</v>
+      </c>
+      <c r="AX1">
+        <v>0</v>
+      </c>
+      <c r="AY1">
+        <v>0</v>
+      </c>
+      <c r="AZ1">
+        <v>0</v>
+      </c>
+      <c r="BA1">
+        <v>0</v>
+      </c>
+      <c r="BB1">
+        <v>0</v>
+      </c>
+      <c r="BC1">
+        <v>0</v>
+      </c>
+      <c r="BD1">
+        <v>0</v>
+      </c>
+      <c r="BE1">
+        <v>0</v>
+      </c>
+      <c r="BF1">
+        <v>0</v>
+      </c>
+      <c r="BG1">
+        <v>0</v>
+      </c>
+      <c r="BH1">
+        <v>0</v>
+      </c>
+      <c r="BI1">
+        <v>0</v>
+      </c>
+      <c r="BJ1">
+        <v>0</v>
+      </c>
+      <c r="BK1">
+        <v>0</v>
+      </c>
+      <c r="BL1">
+        <v>0</v>
+      </c>
+      <c r="BM1">
+        <v>0</v>
+      </c>
+      <c r="BN1">
+        <v>0</v>
+      </c>
+      <c r="BO1">
+        <v>0</v>
+      </c>
+      <c r="BP1">
+        <v>0</v>
+      </c>
+      <c r="BQ1">
+        <v>0</v>
+      </c>
+      <c r="BR1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -646,8 +1600,107 @@
       <c r="AK2">
         <v>0</v>
       </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0</v>
       </c>
@@ -759,8 +1812,107 @@
       <c r="AK3">
         <v>0</v>
       </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -855,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
         <v>5</v>
@@ -872,8 +2024,107 @@
       <c r="AK4">
         <v>0</v>
       </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0</v>
       </c>
@@ -983,10 +2234,109 @@
         <v>1</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>7</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>0</v>
+      </c>
+      <c r="BP5">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>0</v>
+      </c>
+      <c r="BR5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1098,8 +2448,107 @@
       <c r="AK6">
         <v>0</v>
       </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>3</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1128,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1211,8 +2660,107 @@
       <c r="AK7">
         <v>0</v>
       </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>5</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>5</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>5</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>7</v>
+      </c>
+      <c r="BL7">
+        <v>0</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>0</v>
+      </c>
+      <c r="BO7">
+        <v>0</v>
+      </c>
+      <c r="BP7">
+        <v>0</v>
+      </c>
+      <c r="BQ7">
+        <v>0</v>
+      </c>
+      <c r="BR7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1259,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1324,8 +2872,107 @@
       <c r="AK8">
         <v>0</v>
       </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
+        <v>0</v>
+      </c>
+      <c r="BC8">
+        <v>1</v>
+      </c>
+      <c r="BD8">
+        <v>1</v>
+      </c>
+      <c r="BE8">
+        <v>1</v>
+      </c>
+      <c r="BF8">
+        <v>1</v>
+      </c>
+      <c r="BG8">
+        <v>1</v>
+      </c>
+      <c r="BH8">
+        <v>1</v>
+      </c>
+      <c r="BI8">
+        <v>1</v>
+      </c>
+      <c r="BJ8">
+        <v>1</v>
+      </c>
+      <c r="BK8">
+        <v>1</v>
+      </c>
+      <c r="BL8">
+        <v>0</v>
+      </c>
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1372,7 +3019,7 @@
         <v>5</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -1426,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1437,8 +3084,107 @@
       <c r="AK9">
         <v>0</v>
       </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
+        <v>0</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1548,35 +3294,164 @@
         <v>1</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BD10">
+        <v>0</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>0</v>
+      </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BL10">
+        <v>0</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>0</v>
+      </c>
+      <c r="BO10">
+        <v>0</v>
+      </c>
+      <c r="BP10">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>0</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:AK10">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+  <conditionalFormatting sqref="A1:BR10">
+    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="13" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:BR10">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK1:BR10">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:BS10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>3</formula>
+      <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
